--- a/Task 11- Web Scrapping and Automation/Top_100_IMDB_Movies.xlsx
+++ b/Task 11- Web Scrapping and Automation/Top_100_IMDB_Movies.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2,757,535</t>
+          <t>2,758,009</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1,918,798</t>
+          <t>1,919,159</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2,730,498</t>
+          <t>2,730,985</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1,389,748</t>
+          <t>1,389,946</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>816,966</t>
+          <t>817,131</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1,306,012</t>
+          <t>1,306,212</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1,893,539</t>
+          <t>1,893,796</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>156,233</t>
+          <t>158,345</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2,117,330</t>
+          <t>2,117,662</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2,423,109</t>
+          <t>2,423,532</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1,922,004</t>
+          <t>1,922,276</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2,195,599</t>
+          <t>2,195,965</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2,144,869</t>
+          <t>2,145,261</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>779,857</t>
+          <t>779,970</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1,708,882</t>
+          <t>1,709,115</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>207,540</t>
+          <t>207,581</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>#219</t>
+          <t>#218</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>35,256</t>
+          <t>35,274</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>53,911</t>
+          <t>53,932</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1,924,655</t>
+          <t>1,925,314</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1,196,779</t>
+          <t>1,197,011</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1,965,127</t>
+          <t>1,965,427</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1,031,787</t>
+          <t>1,031,925</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1,325,858</t>
+          <t>1,326,063</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>119,799</t>
+          <t>119,812</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1,340,751</t>
+          <t>1,341,003</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1,127,397</t>
+          <t>1,127,555</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1,704,889</t>
+          <t>1,705,191</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1,472,902</t>
+          <t>1,473,136</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1,428,516</t>
+          <t>1,428,730</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1,398,111</t>
+          <t>1,398,304</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>794,320</t>
+          <t>794,508</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>773,166</t>
+          <t>773,260</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>713,414</t>
+          <t>713,522</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>353,901</t>
+          <t>353,957</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>473,582</t>
+          <t>473,661</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>61,536</t>
+          <t>61,572</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>60,826</t>
+          <t>60,872</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1,244,408</t>
+          <t>1,244,656</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1,361,271</t>
+          <t>1,361,485</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>906,585</t>
+          <t>906,712</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1,541,399</t>
+          <t>1,541,647</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>861,790</t>
+          <t>862,077</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>910,593</t>
+          <t>910,809</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1,369,465</t>
+          <t>1,369,688</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1,193,621</t>
+          <t>1,193,797</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>585,395</t>
+          <t>585,495</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1,146,380</t>
+          <t>1,146,524</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1,089,961</t>
+          <t>1,090,196</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1,107,362</t>
+          <t>1,107,477</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>859,850</t>
+          <t>860,003</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>690,039</t>
+          <t>690,161</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>884,766</t>
+          <t>884,904</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>338,086</t>
+          <t>338,141</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>288,948</t>
+          <t>289,021</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>503,359</t>
+          <t>503,429</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>269,449</t>
+          <t>269,503</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>249,167</t>
+          <t>249,218</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>189,092</t>
+          <t>189,128</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>33,343</t>
+          <t>33,355</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>597,956</t>
+          <t>598,695</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>993,670</t>
+          <t>994,145</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1,188,223</t>
+          <t>1,188,562</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1,606,549</t>
+          <t>1,606,852</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1,363,879</t>
+          <t>1,364,257</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>734,730</t>
+          <t>734,840</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1,053,311</t>
+          <t>1,053,473</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>684,200</t>
+          <t>684,314</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>598,878</t>
+          <t>599,004</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1,748,048</t>
+          <t>1,748,356</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1,131,007</t>
+          <t>1,131,327</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3296,12 +3296,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>83</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1,267,578</t>
+          <t>1,267,732</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>410,971</t>
+          <t>411,031</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>539,018</t>
+          <t>539,201</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>86,775</t>
+          <t>86,815</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1,147,873</t>
+          <t>1,148,070</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>289,493</t>
+          <t>289,614</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>256,304</t>
+          <t>256,344</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>397,573</t>
+          <t>397,616</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>501,639</t>
+          <t>501,718</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>95,964</t>
+          <t>95,998</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>227,688</t>
+          <t>227,729</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>412,305</t>
+          <t>412,384</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>202,874</t>
+          <t>202,924</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>130,068</t>
+          <t>130,099</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>229,379</t>
+          <t>229,411</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>48,156</t>
+          <t>48,180</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>36,500</t>
+          <t>36,520</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>44,350</t>
+          <t>44,371</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>31,375</t>
+          <t>31,385</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>39,162</t>
+          <t>39,174</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>600,763</t>
+          <t>601,160</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>680,135</t>
+          <t>680,299</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1,498,222</t>
+          <t>1,498,502</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>323,069</t>
+          <t>323,126</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>864,229</t>
+          <t>864,343</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>869,800</t>
+          <t>869,987</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1,176,064</t>
+          <t>1,176,177</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1,007,795</t>
+          <t>1,007,962</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1,074,184</t>
+          <t>1,074,401</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>850,353</t>
+          <t>850,473</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
